--- a/biology/Botanique/Cyprès_de_Baker/Cyprès_de_Baker.xlsx
+++ b/biology/Botanique/Cyprès_de_Baker/Cyprès_de_Baker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Baker</t>
+          <t>Cyprès_de_Baker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupressus bakeri
 Le cyprès de Baker ou cyprès de Modoc (Cupressus bakeri) est une espèce de plantes de la famille des Cupressaceae. C'est un arbre originaire du sud-ouest des États-Unis.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Baker</t>
+          <t>Cyprès_de_Baker</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'une zone restreinte du Sud-Ouest des États-Unis :
 dans le nord de la Californie, dans les comtés de Siskiyou, Modoc, Shasta et de Plumas,
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Baker</t>
+          <t>Cyprès_de_Baker</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cyprès de Baker est un arbre toujours vert, de taille moyenne, dont la silhouette est conique.
 Il peut atteindre une hauteur de 10 à 25 mètres (40 mètres exceptionnellement), avec un tronc d'un diamètre de 50 cm (jusqu'à un mètre exceptionnellement).
